--- a/results/pvalue_OFFSIDES_all_DGI_AUPR.xlsx
+++ b/results/pvalue_OFFSIDES_all_DGI_AUPR.xlsx
@@ -609,7 +609,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.191</t>
+          <t>0.236</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -626,22 +626,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>14.109</t>
+          <t>28.602</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>14.249</t>
+          <t>28.426</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>14.816</t>
+          <t>27.49</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.573</t>
+          <t>1.393</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>9.865</t>
+          <t>9.654</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
